--- a/财政所公共资料/会计凭证封面扶贫专账.xlsx
+++ b/财政所公共资料/会计凭证封面扶贫专账.xlsx
@@ -16,19 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>2020年度白云寺镇垃圾处理费专账</t>
+    <t>2021年度白云寺镇财政所专账</t>
   </si>
   <si>
-    <t>2020年 1 月 1 日至 2020 年 12 月 31 日</t>
+    <t>2021年 1 月 1 日至 2021 年 12 月 31 日</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>本年度共</t>
     </r>
     <r>
@@ -39,7 +33,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">   1   </t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -58,7 +52,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">   1   </t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -72,7 +66,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    4   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -91,7 +85,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  1 </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -110,21 +104,12 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">   2  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
+      <t xml:space="preserve">     号</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    5   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -143,7 +128,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  1 </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -176,7 +161,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    8   </t>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -195,7 +187,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  1 </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -228,7 +220,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">    12   </t>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -247,7 +246,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  1 </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -284,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -341,6 +340,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -348,29 +362,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,91 +438,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -479,6 +447,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,25 +505,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,25 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,13 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,109 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,6 +696,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -711,15 +725,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,28 +744,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,18 +788,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,7 +1293,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N14"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
